--- a/vedois/professores (importar)/Prof 8_horarios.xlsx
+++ b/vedois/professores (importar)/Prof 8_horarios.xlsx
@@ -563,9 +563,9 @@
           <t>13:30 - 14:25</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Governança de TI (SIN - 7º período)</t>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -580,9 +580,9 @@
           <t>14:25 - 15:20</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Governança de TI (SIN - 7º período)</t>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -597,9 +597,9 @@
           <t>15:45 - 16:40</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Governança de TI (SIN - 7º período)</t>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -614,9 +614,9 @@
           <t>16:40 - 17:35</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Governança de TI (SIN - 7º período)</t>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -682,9 +682,9 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Engenharia de Software II (SIN - 3º período)</t>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -699,9 +699,9 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Engenharia de Software II (SIN - 3º período)</t>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Inteligência de Negócios (SIN - 7º período)</t>
+          <t>Engenharia de Software II (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Inteligência de Negócios (SIN - 7º período)</t>
+          <t>Engenharia de Software II (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -937,9 +937,9 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Inteligência de Negócios (SIN - 7º período)</t>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -954,9 +954,9 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>Inteligência de Negócios (SIN - 7º período)</t>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -1413,9 +1413,9 @@
           <t>19:00 - 19:50</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Governança de TI (SIN - 7º período)</t>
         </is>
       </c>
     </row>
@@ -1430,9 +1430,9 @@
           <t>19:50 - 20:40</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Governança de TI (SIN - 7º período)</t>
         </is>
       </c>
     </row>
@@ -1447,9 +1447,9 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Governança de TI (SIN - 7º período)</t>
         </is>
       </c>
     </row>
@@ -1464,9 +1464,9 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Governança de TI (SIN - 7º período)</t>
         </is>
       </c>
     </row>
@@ -1668,9 +1668,9 @@
           <t>19:00 - 19:50</t>
         </is>
       </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>Inteligência de Negócios (SIN - 7º período)</t>
         </is>
       </c>
     </row>
@@ -1685,9 +1685,9 @@
           <t>19:50 - 20:40</t>
         </is>
       </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Inteligência de Negócios (SIN - 7º período)</t>
         </is>
       </c>
     </row>
@@ -1702,9 +1702,9 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Inteligência de Negócios (SIN - 7º período)</t>
         </is>
       </c>
     </row>
@@ -1719,9 +1719,9 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Inteligência de Negócios (SIN - 7º período)</t>
         </is>
       </c>
     </row>
